--- a/Roithner Laser S6705MG/Roithner_S6705MG_OpticalPower.xlsx
+++ b/Roithner Laser S6705MG/Roithner_S6705MG_OpticalPower.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Laser Spectrum\Roithner Laser S6705MG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C39DFC0-263A-43DF-94ED-361E18773A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9823B7BB-C192-434C-83CC-DD8A1A640B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="5" r:id="rId1"/>
     <sheet name="OpticalPower_vs_Current_20ºC" sheetId="6" r:id="rId2"/>
     <sheet name="OpticalPower_vs_Current_25º" sheetId="7" r:id="rId3"/>
-    <sheet name="OpticalPower_vs_Temp_15mA" sheetId="8" r:id="rId4"/>
+    <sheet name="OpticalPower_vs_Temp" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -504,6 +504,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -518,7 +519,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2113,7 +2113,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>OpticalPower_vs_Temp_15mA!$O$11:$O$30</c:f>
+                <c:f>OpticalPower_vs_Temp!$O$11:$O$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
@@ -2149,7 +2149,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>OpticalPower_vs_Temp_15mA!$O$11:$O$30</c:f>
+                <c:f>OpticalPower_vs_Temp!$O$11:$O$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
@@ -2204,7 +2204,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>OpticalPower_vs_Temp_15mA!$U$11:$U$30</c:f>
+                <c:f>OpticalPower_vs_Temp!$U$11:$U$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
@@ -2240,7 +2240,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>OpticalPower_vs_Temp_15mA!$U$11:$U$30</c:f>
+                <c:f>OpticalPower_vs_Temp!$U$11:$U$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
@@ -2290,7 +2290,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>OpticalPower_vs_Temp_15mA!$N$11:$N$31</c:f>
+              <c:f>OpticalPower_vs_Temp!$N$11:$N$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2326,7 +2326,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OpticalPower_vs_Temp_15mA!$T$11:$T$31</c:f>
+              <c:f>OpticalPower_vs_Temp!$T$11:$T$31</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
@@ -4750,45 +4750,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -4926,59 +4926,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="N3" s="15" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="N3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="N4" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -4987,26 +4987,26 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="N5" s="12" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="N5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -5018,16 +5018,16 @@
       <c r="C6" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -5044,38 +5044,38 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="13" t="s">
+      <c r="J8" s="15"/>
+      <c r="K8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="N8" s="13" t="s">
+      <c r="L8" s="15"/>
+      <c r="N8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="13" t="s">
+      <c r="O8" s="15"/>
+      <c r="P8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="13" t="s">
+      <c r="Q8" s="15"/>
+      <c r="R8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="S8" s="14"/>
-      <c r="T8" s="13" t="s">
+      <c r="S8" s="15"/>
+      <c r="T8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="U8" s="14"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -5274,31 +5274,31 @@
         <v>1.1040000000000001</v>
       </c>
       <c r="N12" s="8">
-        <f t="shared" ref="N12:N30" si="0">AVERAGE(E12:F12)</f>
+        <f t="shared" ref="N12:N24" si="0">AVERAGE(E12:F12)</f>
         <v>25.02</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" ref="O12:O30" si="1">(F12-E12)/2+0.5</f>
+        <f t="shared" ref="O12:O24" si="1">(F12-E12)/2+0.5</f>
         <v>0.5</v>
       </c>
       <c r="P12" s="7">
-        <f t="shared" ref="P12:P30" si="2">AVERAGE(G12:H12)</f>
+        <f t="shared" ref="P12:P24" si="2">AVERAGE(G12:H12)</f>
         <v>0.5694999999999999</v>
       </c>
       <c r="R12" s="7">
-        <f t="shared" ref="R12:R30" si="3">AVERAGE(I12:J12)</f>
+        <f t="shared" ref="R12:R24" si="3">AVERAGE(I12:J12)</f>
         <v>5.5E-2</v>
       </c>
       <c r="S12" s="7">
-        <f t="shared" ref="S12:S30" si="4">(J12-I12)/2+0.01</f>
+        <f t="shared" ref="S12:S24" si="4">(J12-I12)/2+0.01</f>
         <v>0.01</v>
       </c>
       <c r="T12" s="7">
-        <f t="shared" ref="T12:T30" si="5">AVERAGE(K12:L12)</f>
+        <f t="shared" ref="T12:T24" si="5">AVERAGE(K12:L12)</f>
         <v>1.1040000000000001</v>
       </c>
       <c r="U12" s="7">
-        <f t="shared" ref="U12:U30" si="6">(L12-K12)/2+T12*SQRT(0.03^2+0.002^2)</f>
+        <f t="shared" ref="U12:U24" si="6">(L12-K12)/2+T12*SQRT(0.03^2+0.002^2)</f>
         <v>3.3193518403447385E-2</v>
       </c>
     </row>
@@ -6092,7 +6092,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
@@ -6115,59 +6115,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="N3" s="15" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="N3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="N4" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -6176,26 +6176,26 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="N5" s="12" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="N5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -6207,16 +6207,16 @@
       <c r="C6" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -6233,38 +6233,38 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="13" t="s">
+      <c r="J8" s="15"/>
+      <c r="K8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="N8" s="13" t="s">
+      <c r="L8" s="15"/>
+      <c r="N8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="13" t="s">
+      <c r="O8" s="15"/>
+      <c r="P8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="13" t="s">
+      <c r="Q8" s="15"/>
+      <c r="R8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="S8" s="14"/>
-      <c r="T8" s="13" t="s">
+      <c r="S8" s="15"/>
+      <c r="T8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="U8" s="14"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -6463,31 +6463,31 @@
         <v>0.248</v>
       </c>
       <c r="N12" s="8">
-        <f t="shared" ref="N12:N31" si="0">AVERAGE(E12:F12)</f>
+        <f t="shared" ref="N12:N22" si="0">AVERAGE(E12:F12)</f>
         <v>25</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" ref="O12:O31" si="1">(F12-E12)/2+0.5</f>
+        <f t="shared" ref="O12:O22" si="1">(F12-E12)/2+0.5</f>
         <v>0.5</v>
       </c>
       <c r="P12" s="7">
-        <f t="shared" ref="P12:P31" si="2">AVERAGE(G12:H12)</f>
+        <f t="shared" ref="P12:P22" si="2">AVERAGE(G12:H12)</f>
         <v>0.11700000000000001</v>
       </c>
       <c r="R12" s="7">
-        <f t="shared" ref="R12:R30" si="3">AVERAGE(I12:J12)</f>
+        <f t="shared" ref="R12:R22" si="3">AVERAGE(I12:J12)</f>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="S12" s="7">
-        <f t="shared" ref="S12:S30" si="4">(J12-I12)/2+0.01</f>
+        <f t="shared" ref="S12:S22" si="4">(J12-I12)/2+0.01</f>
         <v>0.01</v>
       </c>
       <c r="T12" s="7">
-        <f t="shared" ref="T12:T30" si="5">AVERAGE(K12:L12)</f>
+        <f t="shared" ref="T12:T22" si="5">AVERAGE(K12:L12)</f>
         <v>0.247</v>
       </c>
       <c r="U12" s="7">
-        <f t="shared" ref="U12:U30" si="6">(L12-K12)/2+T12*SQRT(0.03^2+0.002^2)</f>
+        <f t="shared" ref="U12:U22" si="6">(L12-K12)/2+T12*SQRT(0.03^2+0.002^2)</f>
         <v>8.4264484109162173E-3</v>
       </c>
     </row>
@@ -7183,6 +7183,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="N5:U5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="N4:U4"/>
     <mergeCell ref="N6:U6"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -7192,13 +7199,6 @@
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="T8:U8"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="N5:U5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="N4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7212,8 +7212,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7234,59 +7234,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="N3" s="15" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="N3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="N4" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -7295,26 +7295,26 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="N5" s="12" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="N5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -7326,16 +7326,16 @@
       <c r="C6" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -7352,38 +7352,38 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="13" t="s">
+      <c r="J8" s="15"/>
+      <c r="K8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="N8" s="13" t="s">
+      <c r="L8" s="15"/>
+      <c r="N8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="13" t="s">
+      <c r="O8" s="15"/>
+      <c r="P8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="13" t="s">
+      <c r="Q8" s="15"/>
+      <c r="R8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="S8" s="14"/>
-      <c r="T8" s="13" t="s">
+      <c r="S8" s="15"/>
+      <c r="T8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="U8" s="14"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -7494,10 +7494,10 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="E11" s="16">
+      <c r="E11" s="10">
         <v>25</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="10">
         <v>25</v>
       </c>
       <c r="G11" s="7">
@@ -7557,10 +7557,10 @@
       <c r="C12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="10">
         <v>23</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="10">
         <v>23</v>
       </c>
       <c r="G12" s="7">
@@ -7611,10 +7611,10 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E13" s="16">
+      <c r="E13" s="10">
         <v>20</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="10">
         <v>20</v>
       </c>
       <c r="G13" s="7">
@@ -7665,10 +7665,10 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E14" s="16">
+      <c r="E14" s="10">
         <v>16.989999999999998</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="10">
         <v>16.989999999999998</v>
       </c>
       <c r="G14" s="7">
@@ -7719,10 +7719,10 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E15" s="16">
+      <c r="E15" s="10">
         <v>15.01</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="10">
         <v>15.01</v>
       </c>
       <c r="G15" s="7">
@@ -7773,10 +7773,10 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E16" s="16">
+      <c r="E16" s="10">
         <v>12</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="10">
         <v>12</v>
       </c>
       <c r="G16" s="7">
@@ -7827,10 +7827,10 @@
       </c>
     </row>
     <row r="17" spans="5:21" x14ac:dyDescent="0.3">
-      <c r="E17" s="16">
+      <c r="E17" s="10">
         <v>10</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="10">
         <v>10</v>
       </c>
       <c r="G17" s="7">
@@ -7881,10 +7881,10 @@
       </c>
     </row>
     <row r="18" spans="5:21" x14ac:dyDescent="0.3">
-      <c r="E18" s="16">
+      <c r="E18" s="10">
         <v>6.99</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="10">
         <v>7</v>
       </c>
       <c r="G18" s="7">
@@ -7935,10 +7935,10 @@
       </c>
     </row>
     <row r="19" spans="5:21" x14ac:dyDescent="0.3">
-      <c r="E19" s="16">
+      <c r="E19" s="10">
         <v>25</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="10">
         <v>25</v>
       </c>
       <c r="G19" s="7">
@@ -8186,6 +8186,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="N5:U5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="N4:U4"/>
     <mergeCell ref="N6:U6"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -8195,13 +8202,6 @@
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="T8:U8"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="N5:U5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="N4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
